--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_7_8.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_7_8.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-54027.80602729593</v>
+        <v>-53921.80071861237</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10713923.91809432</v>
+        <v>10972921.65258452</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>21980028.75264426</v>
+        <v>21947649.14138484</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3620068.996900312</v>
+        <v>3621192.484818175</v>
       </c>
     </row>
     <row r="11">
@@ -11294,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>147.0997974279326</v>
+        <v>82.01270964108606</v>
       </c>
       <c r="K44" t="n">
-        <v>178.8230039740467</v>
+        <v>81.2743314685184</v>
       </c>
       <c r="L44" t="n">
-        <v>191.5602121631146</v>
+        <v>70.54245807633525</v>
       </c>
       <c r="M44" t="n">
-        <v>187.1563144971591</v>
+        <v>52.50074545075637</v>
       </c>
       <c r="N44" t="n">
-        <v>186.3981141722301</v>
+        <v>49.56367724059345</v>
       </c>
       <c r="O44" t="n">
-        <v>186.9547967801205</v>
+        <v>57.74591815338317</v>
       </c>
       <c r="P44" t="n">
-        <v>187.8768090511565</v>
+        <v>77.60002049629389</v>
       </c>
       <c r="Q44" t="n">
-        <v>180.6233730229902</v>
+        <v>97.81009740783446</v>
       </c>
       <c r="R44" t="n">
         <v>85.43134583487716</v>
@@ -11373,28 +11375,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J45" t="n">
-        <v>103.0555716666667</v>
+        <v>64.29014807201071</v>
       </c>
       <c r="K45" t="n">
-        <v>111.9961691666667</v>
+        <v>45.73988577757382</v>
       </c>
       <c r="L45" t="n">
-        <v>112.5754335711478</v>
+        <v>23.48568402129196</v>
       </c>
       <c r="M45" t="n">
-        <v>115.4839025616399</v>
+        <v>11.52036692897309</v>
       </c>
       <c r="N45" t="n">
-        <v>106.7151410677083</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>115.8594486111111</v>
+        <v>18.23594302922992</v>
       </c>
       <c r="P45" t="n">
-        <v>108.8542060241433</v>
+        <v>30.50273615440041</v>
       </c>
       <c r="Q45" t="n">
-        <v>113.7351914448925</v>
+        <v>61.35930878861527</v>
       </c>
       <c r="R45" t="n">
         <v>59.17817075471706</v>
@@ -11455,22 +11457,22 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K46" t="n">
-        <v>104.82327226356</v>
+        <v>64.85774405223553</v>
       </c>
       <c r="L46" t="n">
-        <v>109.5937994785061</v>
+        <v>58.4516830177862</v>
       </c>
       <c r="M46" t="n">
-        <v>112.8771994574291</v>
+        <v>58.95500830344886</v>
       </c>
       <c r="N46" t="n">
-        <v>103.744504878002</v>
+        <v>51.10446290764006</v>
       </c>
       <c r="O46" t="n">
-        <v>112.4959374921223</v>
+        <v>63.87433869480827</v>
       </c>
       <c r="P46" t="n">
-        <v>111.9040032899324</v>
+        <v>70.29982587808107</v>
       </c>
       <c r="Q46" t="n">
         <v>84.9458458910769</v>
@@ -25877,13 +25879,13 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G44" t="n">
-        <v>411.9429466803539</v>
+        <v>411.1760772090881</v>
       </c>
       <c r="H44" t="n">
-        <v>329.4930616586638</v>
+        <v>321.6393596860628</v>
       </c>
       <c r="I44" t="n">
-        <v>171.0890268032919</v>
+        <v>141.5242915123168</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25910,16 +25912,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>89.73190363910518</v>
+        <v>41.56003921470423</v>
       </c>
       <c r="S44" t="n">
-        <v>185.3566856159496</v>
+        <v>167.8816475394799</v>
       </c>
       <c r="T44" t="n">
-        <v>222.1153568062989</v>
+        <v>218.7583856958329</v>
       </c>
       <c r="U44" t="n">
-        <v>252.3364829231459</v>
+        <v>252.2751333654446</v>
       </c>
       <c r="V44" t="n">
         <v>333.6094813630181</v>
@@ -25956,13 +25958,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G45" t="n">
-        <v>127.4412149769483</v>
+        <v>127.0309036367328</v>
       </c>
       <c r="H45" t="n">
-        <v>98.93847887876893</v>
+        <v>94.97573514563526</v>
       </c>
       <c r="I45" t="n">
-        <v>67.69846245683961</v>
+        <v>53.57151499766643</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25989,16 +25991,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>59.18642621600367</v>
+        <v>33.71113089981824</v>
       </c>
       <c r="S45" t="n">
-        <v>151.2714921173871</v>
+        <v>143.6501389339988</v>
       </c>
       <c r="T45" t="n">
-        <v>186.7982527956746</v>
+        <v>185.1444101568237</v>
       </c>
       <c r="U45" t="n">
-        <v>216.3098444776729</v>
+        <v>216.2828503105535</v>
       </c>
       <c r="V45" t="n">
         <v>226.1116663261494</v>
@@ -26035,16 +26037,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G46" t="n">
-        <v>167.2305511458285</v>
+        <v>166.8865599014431</v>
       </c>
       <c r="H46" t="n">
-        <v>157.7789187685189</v>
+        <v>154.7205238866194</v>
       </c>
       <c r="I46" t="n">
-        <v>142.7610139533483</v>
+        <v>132.4162590767394</v>
       </c>
       <c r="J46" t="n">
-        <v>59.456666199969</v>
+        <v>35.13648522191968</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26065,19 +26067,19 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>38.15196793284785</v>
+        <v>9.347392005264936</v>
       </c>
       <c r="R46" t="n">
-        <v>148.0265635717656</v>
+        <v>132.5594663469447</v>
       </c>
       <c r="S46" t="n">
-        <v>211.5726649703493</v>
+        <v>205.5778357386506</v>
       </c>
       <c r="T46" t="n">
-        <v>230.8471636524779</v>
+        <v>229.3773828810129</v>
       </c>
       <c r="U46" t="n">
-        <v>284.3183371157911</v>
+        <v>284.2995739570064</v>
       </c>
       <c r="V46" t="n">
         <v>258.1279513971616</v>
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>313070.1817308262</v>
+        <v>315015.6992973551</v>
       </c>
     </row>
   </sheetData>
@@ -26326,16 +26328,16 @@
         <v>36297.99208473348</v>
       </c>
       <c r="G2" t="n">
-        <v>36297.99208473348</v>
+        <v>36297.99208473347</v>
       </c>
       <c r="H2" t="n">
-        <v>36297.99208473348</v>
+        <v>36297.99208473347</v>
       </c>
       <c r="I2" t="n">
         <v>36297.99208473348</v>
       </c>
       <c r="J2" t="n">
-        <v>36297.99208473347</v>
+        <v>36297.99208473349</v>
       </c>
       <c r="K2" t="n">
         <v>36297.99208473348</v>
@@ -26350,10 +26352,10 @@
         <v>36297.99208473348</v>
       </c>
       <c r="O2" t="n">
-        <v>36297.99208473348</v>
+        <v>36297.99208473349</v>
       </c>
       <c r="P2" t="n">
-        <v>36297.99208473348</v>
+        <v>38888.36098548747</v>
       </c>
     </row>
     <row r="3">
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>126964.4664077942</v>
       </c>
     </row>
     <row r="4">
@@ -26457,7 +26459,7 @@
         <v>31760.7430741418</v>
       </c>
       <c r="P4" t="n">
-        <v>31760.7430741418</v>
+        <v>13630.90165982721</v>
       </c>
     </row>
     <row r="5">
@@ -26509,7 +26511,7 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>4158.541425306673</v>
       </c>
     </row>
     <row r="6">
@@ -26528,40 +26530,40 @@
         <v>-29090.35098940832</v>
       </c>
       <c r="E6" t="n">
-        <v>4537.24901059168</v>
+        <v>4537.249010591677</v>
       </c>
       <c r="F6" t="n">
-        <v>4537.24901059168</v>
+        <v>4537.249010591677</v>
       </c>
       <c r="G6" t="n">
-        <v>4537.24901059168</v>
+        <v>4537.24901059167</v>
       </c>
       <c r="H6" t="n">
-        <v>4537.24901059168</v>
+        <v>4537.24901059167</v>
       </c>
       <c r="I6" t="n">
-        <v>4537.24901059168</v>
+        <v>4537.249010591677</v>
       </c>
       <c r="J6" t="n">
-        <v>4537.249010591673</v>
+        <v>4537.249010591684</v>
       </c>
       <c r="K6" t="n">
-        <v>4537.24901059168</v>
+        <v>4537.249010591677</v>
       </c>
       <c r="L6" t="n">
-        <v>4537.24901059168</v>
+        <v>4537.249010591677</v>
       </c>
       <c r="M6" t="n">
-        <v>4537.24901059168</v>
+        <v>4537.249010591677</v>
       </c>
       <c r="N6" t="n">
-        <v>4537.24901059168</v>
+        <v>4537.249010591677</v>
       </c>
       <c r="O6" t="n">
-        <v>4537.24901059168</v>
+        <v>4537.249010591684</v>
       </c>
       <c r="P6" t="n">
-        <v>4537.24901059168</v>
+        <v>-105865.5485074406</v>
       </c>
     </row>
   </sheetData>
@@ -26777,7 +26779,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>190.7587809773703</v>
       </c>
     </row>
     <row r="4">
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>190.7587809773703</v>
       </c>
     </row>
     <row r="4">
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>0.7668694712658096</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>7.853701972600975</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>29.56473529097515</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>65.08708778684657</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>97.54867250552832</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>121.0177540867794</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>134.6555690464027</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>136.8344369316367</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>129.2088786267373</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>110.2767885548626</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>82.81327561515576</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>48.17186442440096</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>17.47503807646966</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>3.356971110466083</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>0.06134955770126475</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>0.4103113402154758</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>3.962743733133674</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>14.12694745917318</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>38.76542359465599</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>66.25628338909286</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>89.08974954985582</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>103.9635356326668</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>106.7151410677083</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>97.62350558188119</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>78.35146986974291</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>52.37588265627722</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>25.47529531618542</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>7.621353183388328</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>1.653842638850974</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>0.0269941671194392</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>0.3439912443854218</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>3.05839488189948</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>10.34475487660887</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>24.32018097804932</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>39.96552821132445</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>51.1421164607199</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>53.92219115398024</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>52.6400419703619</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>48.621598797314</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>41.60417741185136</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>28.80457592758292</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>15.46709722482087</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>5.994829231698668</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>1.469780771464984</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>0.01876315878465939</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_7_8.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_7_8.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-53921.80071861237</v>
+        <v>-176627.8266059039</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10972921.65258452</v>
+        <v>10713923.91809432</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>21947649.14138484</v>
+        <v>21980028.75264426</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3621192.484818175</v>
+        <v>3620068.996900312</v>
       </c>
     </row>
     <row r="11">
@@ -11296,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>82.01270964108606</v>
+        <v>147.0997974279326</v>
       </c>
       <c r="K44" t="n">
-        <v>81.2743314685184</v>
+        <v>178.8230039740467</v>
       </c>
       <c r="L44" t="n">
-        <v>70.54245807633525</v>
+        <v>191.5602121631146</v>
       </c>
       <c r="M44" t="n">
-        <v>52.50074545075637</v>
+        <v>187.1563144971591</v>
       </c>
       <c r="N44" t="n">
-        <v>49.56367724059345</v>
+        <v>186.3981141722301</v>
       </c>
       <c r="O44" t="n">
-        <v>57.74591815338317</v>
+        <v>186.9547967801205</v>
       </c>
       <c r="P44" t="n">
-        <v>77.60002049629389</v>
+        <v>187.8768090511565</v>
       </c>
       <c r="Q44" t="n">
-        <v>97.81009740783446</v>
+        <v>180.6233730229902</v>
       </c>
       <c r="R44" t="n">
         <v>85.43134583487716</v>
@@ -11375,28 +11375,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J45" t="n">
-        <v>64.29014807201071</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K45" t="n">
-        <v>45.73988577757382</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L45" t="n">
-        <v>23.48568402129196</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M45" t="n">
-        <v>11.52036692897309</v>
+        <v>115.4839025616399</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>106.7151410677083</v>
       </c>
       <c r="O45" t="n">
-        <v>18.23594302922992</v>
+        <v>115.8594486111111</v>
       </c>
       <c r="P45" t="n">
-        <v>30.50273615440041</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q45" t="n">
-        <v>61.35930878861527</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R45" t="n">
         <v>59.17817075471706</v>
@@ -11457,22 +11457,22 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K46" t="n">
-        <v>64.85774405223553</v>
+        <v>104.82327226356</v>
       </c>
       <c r="L46" t="n">
-        <v>58.4516830177862</v>
+        <v>109.5937994785061</v>
       </c>
       <c r="M46" t="n">
-        <v>58.95500830344886</v>
+        <v>112.8771994574291</v>
       </c>
       <c r="N46" t="n">
-        <v>51.10446290764006</v>
+        <v>103.744504878002</v>
       </c>
       <c r="O46" t="n">
-        <v>63.87433869480827</v>
+        <v>112.4959374921223</v>
       </c>
       <c r="P46" t="n">
-        <v>70.29982587808107</v>
+        <v>111.9040032899324</v>
       </c>
       <c r="Q46" t="n">
         <v>84.9458458910769</v>
@@ -25879,13 +25879,13 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G44" t="n">
-        <v>411.1760772090881</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H44" t="n">
-        <v>321.6393596860628</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I44" t="n">
-        <v>141.5242915123168</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,16 +25912,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>41.56003921470423</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S44" t="n">
-        <v>167.8816475394799</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7583856958329</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U44" t="n">
-        <v>252.2751333654446</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V44" t="n">
         <v>333.6094813630181</v>
@@ -25958,13 +25958,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G45" t="n">
-        <v>127.0309036367328</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H45" t="n">
-        <v>94.97573514563526</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I45" t="n">
-        <v>53.57151499766643</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25991,16 +25991,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>33.71113089981824</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S45" t="n">
-        <v>143.6501389339988</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T45" t="n">
-        <v>185.1444101568237</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U45" t="n">
-        <v>216.2828503105535</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V45" t="n">
         <v>226.1116663261494</v>
@@ -26037,16 +26037,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G46" t="n">
-        <v>166.8865599014431</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H46" t="n">
-        <v>154.7205238866194</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I46" t="n">
-        <v>132.4162590767394</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J46" t="n">
-        <v>35.13648522191968</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,19 +26067,19 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>9.347392005264936</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R46" t="n">
-        <v>132.5594663469447</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S46" t="n">
-        <v>205.5778357386506</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T46" t="n">
-        <v>229.3773828810129</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U46" t="n">
-        <v>284.2995739570064</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V46" t="n">
         <v>258.1279513971616</v>
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>315015.6992973551</v>
+        <v>313070.1817308262</v>
       </c>
     </row>
   </sheetData>
@@ -26328,16 +26328,16 @@
         <v>36297.99208473348</v>
       </c>
       <c r="G2" t="n">
-        <v>36297.99208473347</v>
+        <v>36297.99208473348</v>
       </c>
       <c r="H2" t="n">
-        <v>36297.99208473347</v>
+        <v>36297.99208473348</v>
       </c>
       <c r="I2" t="n">
         <v>36297.99208473348</v>
       </c>
       <c r="J2" t="n">
-        <v>36297.99208473349</v>
+        <v>36297.99208473348</v>
       </c>
       <c r="K2" t="n">
         <v>36297.99208473348</v>
@@ -26352,10 +26352,10 @@
         <v>36297.99208473348</v>
       </c>
       <c r="O2" t="n">
-        <v>36297.99208473349</v>
+        <v>36297.99208473348</v>
       </c>
       <c r="P2" t="n">
-        <v>38888.36098548747</v>
+        <v>36297.99208473348</v>
       </c>
     </row>
     <row r="3">
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>126964.4664077942</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26459,7 +26459,7 @@
         <v>31760.7430741418</v>
       </c>
       <c r="P4" t="n">
-        <v>13630.90165982721</v>
+        <v>31760.7430741418</v>
       </c>
     </row>
     <row r="5">
@@ -26511,7 +26511,7 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>4158.541425306673</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-29090.35098940832</v>
+        <v>-43743.70349117118</v>
       </c>
       <c r="C6" t="n">
-        <v>-29090.35098940832</v>
+        <v>-43743.70349117118</v>
       </c>
       <c r="D6" t="n">
-        <v>-29090.35098940832</v>
+        <v>-43743.70349117118</v>
       </c>
       <c r="E6" t="n">
-        <v>4537.249010591677</v>
+        <v>-10116.10349117118</v>
       </c>
       <c r="F6" t="n">
-        <v>4537.249010591677</v>
+        <v>-10116.10349117118</v>
       </c>
       <c r="G6" t="n">
-        <v>4537.24901059167</v>
+        <v>-10116.10349117118</v>
       </c>
       <c r="H6" t="n">
-        <v>4537.24901059167</v>
+        <v>-10116.10349117118</v>
       </c>
       <c r="I6" t="n">
-        <v>4537.249010591677</v>
+        <v>-10116.10349117118</v>
       </c>
       <c r="J6" t="n">
-        <v>4537.249010591684</v>
+        <v>-10116.10349117118</v>
       </c>
       <c r="K6" t="n">
-        <v>4537.249010591677</v>
+        <v>-10116.10349117118</v>
       </c>
       <c r="L6" t="n">
-        <v>4537.249010591677</v>
+        <v>-10116.10349117118</v>
       </c>
       <c r="M6" t="n">
-        <v>4537.249010591677</v>
+        <v>-10116.10349117118</v>
       </c>
       <c r="N6" t="n">
-        <v>4537.249010591677</v>
+        <v>-10116.10349117118</v>
       </c>
       <c r="O6" t="n">
-        <v>4537.249010591684</v>
+        <v>-10116.10349117118</v>
       </c>
       <c r="P6" t="n">
-        <v>-105865.5485074406</v>
+        <v>-10116.10349117118</v>
       </c>
     </row>
   </sheetData>
@@ -26779,7 +26779,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>190.7587809773703</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>190.7587809773703</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.7668694712658096</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>7.853701972600975</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>29.56473529097515</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>65.08708778684657</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>97.54867250552832</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>121.0177540867794</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>134.6555690464027</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>136.8344369316367</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>129.2088786267373</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>110.2767885548626</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>82.81327561515576</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>48.17186442440096</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>17.47503807646966</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>3.356971110466083</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0.06134955770126475</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.4103113402154758</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>3.962743733133674</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>14.12694745917318</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>38.76542359465599</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>66.25628338909286</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>89.08974954985582</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>103.9635356326668</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>106.7151410677083</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>97.62350558188119</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>78.35146986974291</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>52.37588265627722</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>25.47529531618542</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>7.621353183388328</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>1.653842638850974</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0.0269941671194392</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3439912443854218</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>3.05839488189948</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>10.34475487660887</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>24.32018097804932</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>39.96552821132445</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>51.1421164607199</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>53.92219115398024</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>52.6400419703619</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>48.621598797314</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>41.60417741185136</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>28.80457592758292</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>15.46709722482087</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>5.994829231698668</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>1.469780771464984</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01876315878465939</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
